--- a/data/924/SZSE/SZSE Main Board - Weekly.xlsx
+++ b/data/924/SZSE/SZSE Main Board - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AYU3"/>
+  <dimension ref="A1:AYV3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7089,15 +7089,20 @@
       </c>
       <c r="AYS1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="AYT1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="AYT1" s="1" t="inlineStr">
+      <c r="AYU1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="AYU1" s="1" t="inlineStr">
+      <c r="AYV1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -11068,19 +11073,22 @@
         <v>2211.74</v>
       </c>
       <c r="AYR2" t="n">
-        <v>2181.09</v>
-      </c>
-      <c r="AYS2" t="inlineStr">
+        <v>2226.44</v>
+      </c>
+      <c r="AYS2" t="n">
+        <v>2226.97</v>
+      </c>
+      <c r="AYT2" t="inlineStr">
         <is>
           <t>SZSEA</t>
         </is>
       </c>
-      <c r="AYT2" t="inlineStr">
+      <c r="AYU2" t="inlineStr">
         <is>
           <t>Shenzhen Stock Exchange Main Board, A Share Index, Close Price</t>
         </is>
       </c>
-      <c r="AYU2" t="inlineStr">
+      <c r="AYV2" t="inlineStr">
         <is>
           <t>Index: 1994.10.04=100</t>
         </is>
@@ -15049,19 +15057,22 @@
         <v>1042.25</v>
       </c>
       <c r="AYR3" t="n">
-        <v>1037.9</v>
-      </c>
-      <c r="AYS3" t="inlineStr">
+        <v>1059.71</v>
+      </c>
+      <c r="AYS3" t="n">
+        <v>1061.73</v>
+      </c>
+      <c r="AYT3" t="inlineStr">
         <is>
           <t>SZSEB</t>
         </is>
       </c>
-      <c r="AYT3" t="inlineStr">
+      <c r="AYU3" t="inlineStr">
         <is>
           <t>Shenzhen Stock Exchange Main Board, B Share Index, Close Price</t>
         </is>
       </c>
-      <c r="AYU3" t="inlineStr">
+      <c r="AYV3" t="inlineStr">
         <is>
           <t>Index: 1992.02.28=100</t>
         </is>

--- a/data/924/SZSE/SZSE Main Board - Weekly.xlsx
+++ b/data/924/SZSE/SZSE Main Board - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AYV3"/>
+  <dimension ref="A1:AYX3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7094,15 +7094,25 @@
       </c>
       <c r="AYT1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-09</t>
+        </is>
+      </c>
+      <c r="AYU1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="AYV1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="AYU1" s="1" t="inlineStr">
+      <c r="AYW1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="AYV1" s="1" t="inlineStr">
+      <c r="AYX1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -11076,19 +11086,25 @@
         <v>2226.44</v>
       </c>
       <c r="AYS2" t="n">
-        <v>2226.97</v>
-      </c>
-      <c r="AYT2" t="inlineStr">
+        <v>2177.15</v>
+      </c>
+      <c r="AYT2" t="n">
+        <v>2107.06</v>
+      </c>
+      <c r="AYU2" t="n">
+        <v>2077.48</v>
+      </c>
+      <c r="AYV2" t="inlineStr">
         <is>
           <t>SZSEA</t>
         </is>
       </c>
-      <c r="AYU2" t="inlineStr">
+      <c r="AYW2" t="inlineStr">
         <is>
           <t>Shenzhen Stock Exchange Main Board, A Share Index, Close Price</t>
         </is>
       </c>
-      <c r="AYV2" t="inlineStr">
+      <c r="AYX2" t="inlineStr">
         <is>
           <t>Index: 1994.10.04=100</t>
         </is>
@@ -15060,19 +15076,25 @@
         <v>1059.71</v>
       </c>
       <c r="AYS3" t="n">
-        <v>1061.73</v>
-      </c>
-      <c r="AYT3" t="inlineStr">
+        <v>1057.25</v>
+      </c>
+      <c r="AYT3" t="n">
+        <v>1056.13</v>
+      </c>
+      <c r="AYU3" t="n">
+        <v>1059.75</v>
+      </c>
+      <c r="AYV3" t="inlineStr">
         <is>
           <t>SZSEB</t>
         </is>
       </c>
-      <c r="AYU3" t="inlineStr">
+      <c r="AYW3" t="inlineStr">
         <is>
           <t>Shenzhen Stock Exchange Main Board, B Share Index, Close Price</t>
         </is>
       </c>
-      <c r="AYV3" t="inlineStr">
+      <c r="AYX3" t="inlineStr">
         <is>
           <t>Index: 1992.02.28=100</t>
         </is>
